--- a/public/Create.xlsx
+++ b/public/Create.xlsx
@@ -2,27 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Report Info" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Market" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Cost" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="market" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="cost" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="data" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="148">
   <si>
     <t xml:space="preserve">title</t>
   </si>
@@ -109,6 +110,450 @@
   </si>
   <si>
     <t xml:space="preserve">asset_usage_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Being Valued Usage\Sector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كود الغرض من التقييم </t>
+  </si>
+  <si>
+    <t xml:space="preserve">الغرض من التقييم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كود فرضية القيمة </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرضية القيمة </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">كود استخدام</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">قطاع الأصل محل التقييم</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">استخدام</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">قطاع الأصل محل التقييم</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">المنطقة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المدينة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">البيع
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الاستخدام الأعلى والأفضل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زراعي
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تبوك</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الشراء
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الاستخدام الحالي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بحري</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المنطقة الشرقية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نعمي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تقدير القيمة الإيجارية
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">التصفية المنظمة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المواصلات
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مكة المكرمة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">التأمين
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">البيع القسري</t>
+  </si>
+  <si>
+    <t xml:space="preserve">طيران
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">منطقة المدينة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حميط</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أغراض محاسبية
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أخرى</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الخدمات اللوجستية
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">القصيم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الطائف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">التمويل
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">طباعة
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">منطقة تبوك</t>
+  </si>
+  <si>
+    <t xml:space="preserve">النزاعات والتقاضي
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بناء
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">منطقة الحدود الشمالية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رجم الطيارة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الضرائب
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الغزل والنسيج
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">منطقة الجوف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الثميد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أخرى
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ضيافة
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">منطقة حائل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عسيلة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">التعدين
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">منطقة الباحة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حائل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">التعبئة والتغليف
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">منطقة جازان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بريدة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الاتصالات
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">منطقة عسير</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الهفوف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">النفط والغاز
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">منطقة نجران</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الدمام</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المستشفيات
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borkou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المدينة المنورة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الأدوية
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kufra District</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ابها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مأكولات ومشروبات
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The New Valley Governorate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حالة عمار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مياه
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جيزان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مياه الصرف الصحي
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جدة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الكهرباء</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jazan Province</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الشايب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الفوهة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اللوز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عين الأخضر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ذات الحاج</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المجمعة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قيال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الاخضر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">البديعة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مغيرة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الهوجاء</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الخبر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ابار قنا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الجبعاوية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الحميضة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">البيانة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حقل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الدرة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الزيتة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">علقان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مليح</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ابو الحنشان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مقنا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ابو قعر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مركز العوجاء</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مركز العليمة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حفر الباطن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">القلت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">النظيم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ابن طوالة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الصداوي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ام قليب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عريفج</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ابن شرار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">القيصومة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الرقعي الجديدة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ذبحة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الصفيري</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الوايلية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الفيوان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الحماطيات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خميس مشيط</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تحديد</t>
   </si>
 </sst>
 </file>
@@ -120,11 +565,13 @@
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -145,6 +592,14 @@
       <b val="true"/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -152,14 +607,6 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -222,7 +669,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Noto Sans Devanagari"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Noto Sans Devanagari"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -335,28 +789,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -364,7 +822,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -372,11 +830,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -392,7 +850,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -408,7 +874,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -416,8 +882,64 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -493,9 +1015,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="LibreOffice">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
@@ -503,46 +1025,46 @@
         <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0563c1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -550,25 +1072,67 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
+        </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter/>
+          <a:miter lim="800"/>
         </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter/>
+          <a:miter lim="800"/>
         </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter/>
+          <a:miter lim="800"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -587,11 +1151,35 @@
           <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
+        </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -603,130 +1191,241 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I33" activeCellId="0" sqref="I33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="16.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="15.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="25.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="15.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="24.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="15.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="9.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="11.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="1" width="15.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="11.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16378" style="1" width="11.53"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="9" t="n">
+      <c r="E2" s="10" t="n">
         <v>45657</v>
       </c>
-      <c r="F2" s="9" t="n">
+      <c r="F2" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="G2" s="10" t="n">
+      <c r="G2" s="11" t="n">
         <v>45664</v>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="H2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I2" s="4" t="n">
+      <c r="I2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J2" s="11" t="n">
+      <c r="J2" s="12" t="n">
         <v>603190</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="7" t="n">
         <v>11111111</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="14" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="4">
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B2" type="list">
-      <formula1>#REF!</formula1>
+      <formula1>data!$A$3:$A$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2" type="list">
-      <formula1>#REF!</formula1>
+      <formula1>data!$C$3:$C$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O2" type="list">
-      <formula1>#REF!</formula1>
+      <formula1>data!$G$3:$G$21</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2" type="list">
-      <formula1>#REF!</formula1>
+      <formula1>data!$H$3:$H$1601</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -734,11 +1433,11 @@
     <hyperlink ref="N2" r:id="rId1" display="a@a.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -748,60 +1447,89 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="15" width="15.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16382" min="16382" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16383" min="16383" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="10.16"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+    <row r="1" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="17" t="n">
+      <c r="C2" s="20" t="n">
         <v>40</v>
       </c>
-      <c r="C2" s="18" t="n">
+      <c r="D2" s="21" t="n">
         <v>128600</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="17" t="n">
+      <c r="C3" s="20" t="n">
         <v>38</v>
       </c>
-      <c r="C3" s="19" t="n">
+      <c r="D3" s="22" t="n">
         <v>108695</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B2:B3" type="list">
-      <formula1>#REF!</formula1>
+  <dataValidations count="3">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C3" type="list">
+      <formula1>data!$E$3:$E$21</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2" type="list">
+      <formula1>data!$G$3:$G$21</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2" type="list">
+      <formula1>data!$H$3:$H$1601</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -811,71 +1539,8613 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B158" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D175" activeCellId="0" sqref="D175"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="15" width="15.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16373" min="16372" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16382" min="16374" style="0" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="10.16"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+    <row r="1" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+    <row r="2" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="17" t="n">
+      <c r="C2" s="20" t="n">
         <v>39</v>
       </c>
-      <c r="C2" s="18" t="n">
+      <c r="D2" s="21" t="n">
         <v>128600</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
+    <row r="3" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="17" t="n">
+      <c r="C3" s="20" t="n">
         <v>40</v>
       </c>
-      <c r="C3" s="19" t="n">
+      <c r="D3" s="22" t="n">
         <v>108695</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="s">
+      <c r="B4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="17" t="n">
+      <c r="C4" s="20" t="n">
         <v>40</v>
       </c>
-      <c r="C4" s="18" t="n">
+      <c r="D4" s="21" t="n">
         <v>128600</v>
       </c>
     </row>
+    <row r="1048385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B2:B4" type="list">
-      <formula1>#REF!</formula1>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C4" type="list">
+      <formula1>data!$E$3:$E$21</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H1601"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="35.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="34.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.24"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="29" t="n">
+        <v>38</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="15" t="n">
+        <v>39</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="34" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="15" t="n">
+        <v>40</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="26" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="34" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="15" t="n">
+        <v>41</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="26" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="34" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="15" t="n">
+        <v>42</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="26" t="n">
+        <v>9</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="15" t="n">
+        <v>43</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="26" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="15" t="n">
+        <v>44</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="26" t="n">
+        <v>12</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="15" t="n">
+        <v>45</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="26" t="n">
+        <v>14</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="15" t="n">
+        <v>46</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E12" s="15" t="n">
+        <v>47</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E13" s="15" t="n">
+        <v>48</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E14" s="15" t="n">
+        <v>49</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E15" s="15" t="n">
+        <v>50</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E16" s="15" t="n">
+        <v>51</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E17" s="15" t="n">
+        <v>52</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E18" s="15" t="n">
+        <v>53</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E19" s="15" t="n">
+        <v>54</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E20" s="15" t="n">
+        <v>55</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E21" s="15" t="n">
+        <v>56</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H22" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H23" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H24" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H25" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H26" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H27" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H28" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H29" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H30" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H31" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H32" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H33" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E34" s="37"/>
+      <c r="H34" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H35" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H36" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H37" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H38" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H39" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H40" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H41" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H42" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H43" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H44" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H45" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H46" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H47" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H48" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H49" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H50" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H51" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H52" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H53" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H54" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H55" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H56" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H57" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H58" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H59" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H60" s="28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H61" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H62" s="28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H63" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H64" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H65" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H66" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H67" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H68" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H69" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H70" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H71" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H72" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H73" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H74" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H75" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H76" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H77" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H78" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H79" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H80" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H81" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H82" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H83" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H84" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H85" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H86" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H87" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H88" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H89" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H90" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H91" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H92" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H93" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H94" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H95" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H96" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H97" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H98" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H99" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H100" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H101" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H102" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H103" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H104" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H105" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H106" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H107" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H108" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H109" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H110" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H111" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H112" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H113" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H114" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H115" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H116" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H117" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H118" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H119" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H120" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H121" s="28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H122" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H123" s="28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H124" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H125" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H126" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H127" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H128" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H129" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H130" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H131" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H132" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H133" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H134" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H135" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H136" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H137" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H138" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H139" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H140" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H141" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H142" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H143" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H144" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H145" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H146" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H147" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H148" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H149" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H150" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H151" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H152" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H153" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H154" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H155" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H156" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H157" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H158" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H159" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H160" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H161" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H162" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H163" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H164" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H165" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H166" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H167" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H168" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H169" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H170" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H171" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H172" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H173" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H174" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H175" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H176" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H177" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H178" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H179" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H180" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H181" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H182" s="28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H183" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H184" s="28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H185" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H186" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H187" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H188" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H189" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H190" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H191" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H192" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H193" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H194" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H195" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H196" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H197" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H198" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H199" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H200" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H201" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H202" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H203" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H204" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H205" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H206" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H207" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H208" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H209" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H210" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H211" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H212" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H213" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H214" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H215" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H216" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H217" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H218" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H219" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H220" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H221" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H222" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H223" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H224" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H225" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H226" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H227" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H228" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H229" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H230" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H231" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H232" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H233" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H234" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H235" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H236" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H237" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H238" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H239" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H240" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H241" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H242" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H243" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H244" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H245" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H246" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H247" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H248" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H249" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H250" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H251" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H252" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H253" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H254" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H255" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H256" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H257" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H258" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H259" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H260" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H261" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H262" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H263" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H264" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H265" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H266" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H267" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H268" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H269" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H270" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H271" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H272" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H273" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H274" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H275" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H276" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H277" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H278" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H279" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H280" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H281" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H282" s="28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H283" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H284" s="28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H285" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H286" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H287" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H288" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H289" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H290" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H291" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H292" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H293" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H294" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H295" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H296" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H297" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H298" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H299" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H300" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H301" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H302" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H303" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H304" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H305" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H306" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H307" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H308" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H309" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H310" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H311" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H312" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H313" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H314" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H315" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H316" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H317" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H318" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H319" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H320" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H321" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H322" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H323" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H324" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H325" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H326" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H327" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H328" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H329" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H330" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H331" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H332" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H333" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H334" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H335" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H336" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H337" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H338" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H339" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H340" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H341" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H342" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H343" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H344" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H345" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H346" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H347" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H348" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H349" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H350" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H351" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H352" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H353" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H354" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H355" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H356" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H357" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H358" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H359" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H360" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H361" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H362" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H363" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H364" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H365" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H366" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H367" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H368" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H369" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H370" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H371" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H372" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H373" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H374" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H375" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H376" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H377" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H378" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H379" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H380" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H381" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H382" s="28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H383" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H384" s="28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H385" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H386" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H387" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H388" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H389" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H390" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H391" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H392" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H393" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H394" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H395" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H396" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H397" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H398" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H399" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H400" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H401" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H402" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H403" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H404" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H405" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H406" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H407" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H408" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H409" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H410" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H411" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H412" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H413" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H414" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H415" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H416" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H417" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H418" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H419" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H420" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H421" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H422" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H423" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H424" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H425" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H426" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H427" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H428" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H429" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H430" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H431" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H432" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H433" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H434" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H435" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H436" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H437" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H438" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H439" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H440" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H441" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H442" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H443" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H444" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H445" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H446" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H447" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H448" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H449" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H450" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H451" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H452" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H453" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H454" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H455" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H456" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H457" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H458" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H459" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H460" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H461" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H462" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H463" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H464" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H465" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H466" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H467" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H468" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H469" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H470" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H471" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H472" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H473" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H474" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H475" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H476" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H477" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H478" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H479" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H480" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H481" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H482" s="28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H483" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H484" s="28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H485" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H486" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H487" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H488" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H489" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H490" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H491" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H492" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H493" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H494" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H495" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H496" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H497" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H498" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H499" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H500" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H501" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H502" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H503" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H504" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H505" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H506" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H507" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H508" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H509" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H510" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H511" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H512" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H513" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H514" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H515" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H516" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H517" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H518" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H519" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H520" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H521" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H522" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H523" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H524" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H525" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H526" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H527" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H528" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H529" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H530" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H531" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H532" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H533" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H534" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H535" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H536" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H537" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H538" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H539" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H540" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H541" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H542" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H543" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H544" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H545" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H546" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H547" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H548" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H549" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H550" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H551" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H552" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H553" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H554" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H555" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H556" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H557" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H558" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H559" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H560" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H561" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H562" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H563" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H564" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H565" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H566" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H567" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H568" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H569" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H570" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H571" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H572" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H573" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H574" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H575" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H576" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H577" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H578" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H579" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H580" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H581" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H582" s="28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H583" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H584" s="28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H585" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H586" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H587" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H588" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H589" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H590" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H591" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H592" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H593" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H594" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H595" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H596" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H597" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H598" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H599" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H600" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H601" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H602" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H603" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H604" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H605" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H606" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H607" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H608" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H609" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H610" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H611" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H612" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H613" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H614" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H615" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H616" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H617" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H618" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H619" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H620" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H621" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H622" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H623" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H624" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H625" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H626" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H627" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H628" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H629" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H630" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H631" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H632" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H633" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H634" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H635" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H636" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H637" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H638" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H639" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H640" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H641" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H642" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H643" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H644" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H645" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H646" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H647" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H648" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H649" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H650" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H651" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H652" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H653" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H654" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H655" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H656" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H657" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H658" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H659" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H660" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H661" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H662" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H663" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H664" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H665" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H666" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H667" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H668" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H669" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H670" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H671" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H672" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H673" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H674" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H675" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H676" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H677" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H678" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H679" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H680" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H681" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H682" s="28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H683" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H684" s="28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H685" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H686" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H687" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H688" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H689" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H690" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H691" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H692" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H693" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H694" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H695" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H696" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H697" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H698" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H699" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H700" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H701" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H702" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H703" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H704" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H705" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H706" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H707" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H708" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H709" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H710" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H711" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H712" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H713" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H714" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H715" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H716" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H717" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H718" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H719" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H720" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H721" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H722" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H723" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H724" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H725" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H726" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H727" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H728" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H729" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H730" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H731" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H732" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H733" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H734" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H735" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H736" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H737" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H738" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H739" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H740" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H741" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H742" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H743" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H744" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H745" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H746" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H747" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H748" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H749" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H750" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H751" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H752" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H753" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H754" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H755" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H756" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H757" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H758" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H759" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H760" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H761" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H762" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H763" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H764" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H765" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H766" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H767" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H768" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H769" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H770" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H771" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H772" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H773" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H774" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H775" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H776" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H777" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H778" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H779" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H780" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H781" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H782" s="28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H783" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H784" s="28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H785" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H786" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H787" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H788" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H789" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H790" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H791" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H792" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H793" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H794" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H795" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H796" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H797" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H798" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H799" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H800" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H801" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H802" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H803" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H804" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H805" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H806" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H807" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H808" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H809" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H810" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H811" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H812" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H813" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H814" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H815" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H816" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H817" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H818" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H819" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H820" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H821" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H822" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H823" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H824" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H825" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H826" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H827" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H828" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H829" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H830" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H831" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H832" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H833" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H834" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H835" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H836" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H837" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H838" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H839" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H840" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H841" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H842" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H843" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H844" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H845" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H846" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H847" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H848" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H849" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H850" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H851" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H852" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H853" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H854" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H855" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H856" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H857" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H858" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H859" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H860" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H861" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H862" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H863" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H864" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H865" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H866" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H867" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H868" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H869" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H870" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H871" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H872" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H873" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H874" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H875" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H876" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H877" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H878" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H879" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H880" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H881" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H882" s="28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H883" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H884" s="28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H885" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H886" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H887" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H888" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H889" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H890" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H891" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H892" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H893" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H894" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H895" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H896" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H897" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H898" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H899" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H900" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H901" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H902" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H903" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H904" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H905" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H906" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H907" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H908" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H909" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H910" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H911" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H912" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H913" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H914" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H915" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H916" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H917" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H918" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H919" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H920" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H921" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H922" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H923" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H924" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H925" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H926" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H927" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H928" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H929" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H930" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H931" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H932" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H933" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H934" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H935" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H936" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H937" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H938" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H939" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H940" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H941" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H942" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H943" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H944" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H945" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H946" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H947" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H948" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H949" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H950" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H951" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H952" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H953" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H954" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H955" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H956" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H957" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H958" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H959" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H960" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H961" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H962" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H963" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H964" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H965" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H966" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H967" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H968" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H969" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H970" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H971" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H972" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H973" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H974" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H975" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H976" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H977" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H978" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H979" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H980" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H981" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H982" s="28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H983" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H984" s="28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H985" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H986" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H987" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H988" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H989" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H990" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H991" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H992" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H993" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H994" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H995" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H996" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H997" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H998" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H999" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1000" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1000" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1001" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1001" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1002" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1002" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1003" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1003" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1004" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1004" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1005" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1005" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1006" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1006" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1007" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1007" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1008" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1008" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1009" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1009" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1010" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1010" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1011" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1011" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1012" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1012" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1013" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1013" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="1014" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1014" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1015" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1015" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1016" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1016" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1017" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1017" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1018" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1018" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1019" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1019" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1020" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1020" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1021" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1021" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="1022" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1022" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1023" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1023" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="1024" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1024" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1025" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1025" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1026" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1026" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1027" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1027" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1028" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1028" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1029" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1029" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1030" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1030" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1031" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1031" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1032" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1032" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1033" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1033" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1034" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1034" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1035" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1035" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1036" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1036" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1037" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1037" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1038" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1038" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1039" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1039" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1040" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1040" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1041" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1041" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1042" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1042" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1043" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1043" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1044" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1044" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1045" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1045" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1046" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1046" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1047" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1047" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1048" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1048" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1049" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1049" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1050" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1050" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1051" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1051" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1052" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1052" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="1053" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1053" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1054" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1054" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1055" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1055" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1056" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1056" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1057" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1057" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1058" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1058" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1059" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1059" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1060" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1060" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="1061" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1061" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1062" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1062" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="1063" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1063" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1064" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1064" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="1065" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1065" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1066" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1066" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1067" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1067" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1068" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1068" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1069" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1069" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1070" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1070" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="1071" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1071" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1072" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1072" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1073" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1073" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="1074" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1074" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1075" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1075" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="1076" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1076" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="1077" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1077" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1078" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1078" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1079" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1079" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1080" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1080" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1081" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1081" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1082" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1082" s="28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="1083" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1083" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1084" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1084" s="28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1085" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1085" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1086" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1086" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1087" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1087" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1088" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1088" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1089" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1089" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1090" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1090" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1091" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1091" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1092" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1092" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1093" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1093" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1094" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1094" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1095" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1095" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1096" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1096" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1097" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1097" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1098" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1098" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1099" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1099" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1100" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1101" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1102" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1103" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1104" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1105" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1106" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1107" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1108" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1109" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1110" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1111" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1112" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1113" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="1114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1114" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1115" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1116" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1117" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1118" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1119" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1120" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1121" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="1122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1122" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1123" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="1124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1124" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1125" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1126" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1127" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1128" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1129" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1130" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1131" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1132" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1133" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1134" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1135" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1136" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1137" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1138" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1139" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1140" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1141" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1142" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1143" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1144" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1145" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1146" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1147" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1148" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1149" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1150" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1151" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1152" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="1153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1153" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1154" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1155" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1156" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1157" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1158" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1159" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1160" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="1161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1161" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1162" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="1163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1163" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1164" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="1165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1165" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1166" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1167" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1168" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1169" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1170" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="1171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1171" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1172" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1173" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="1174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1174" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1175" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="1176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1176" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="1177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1177" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1178" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1179" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1180" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1181" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1182" s="28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="1183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1183" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1184" s="28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1185" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1186" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1187" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1188" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1189" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1190" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1191" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1192" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1193" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1194" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1195" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1196" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1197" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1198" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1199" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1200" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1201" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1202" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1203" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1204" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1205" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1206" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1207" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1208" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1209" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1210" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1211" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1212" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1213" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="1214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1214" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1215" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1216" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1217" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1218" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1219" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1220" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1221" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="1222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1222" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1223" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="1224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1224" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1225" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1226" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1227" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1228" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1229" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1230" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1231" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1232" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1233" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1234" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1235" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1236" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1237" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1238" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1239" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1240" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1241" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1242" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1243" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1244" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1245" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1246" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1247" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1248" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1249" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1250" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1251" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1252" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="1253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1253" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1254" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1255" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1256" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1257" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1258" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1259" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1260" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="1261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1261" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1262" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="1263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1263" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1264" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="1265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1265" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1266" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1267" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1268" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1269" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1270" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="1271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1271" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1272" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1273" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="1274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1274" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1275" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="1276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1276" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="1277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1277" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1278" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1279" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1280" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1281" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1282" s="28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="1283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1283" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1284" s="28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1285" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1286" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1287" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1288" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1289" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1290" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1291" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1292" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1293" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1294" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1295" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1296" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1297" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1298" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1299" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1300" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1301" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1302" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1303" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1304" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1305" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1306" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1307" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1308" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1309" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1310" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1311" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1312" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1313" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="1314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1314" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1315" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1316" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1317" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1318" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1319" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1320" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1321" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="1322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1322" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1323" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="1324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1324" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1325" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1326" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1327" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1328" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1329" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1330" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1331" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1332" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1333" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1334" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1335" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1336" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1337" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1338" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1339" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1340" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1341" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1342" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1343" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1344" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1345" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1346" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1347" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1348" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1349" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1350" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1351" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1352" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="1353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1353" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1354" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1355" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1356" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1357" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1358" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1359" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1360" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="1361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1361" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1362" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="1363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1363" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1364" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="1365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1365" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1366" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1367" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1368" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1369" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1370" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="1371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1371" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1372" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1373" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="1374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1374" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1375" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="1376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1376" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="1377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1377" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1378" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1379" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1380" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1381" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1382" s="28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="1383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1383" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1384" s="28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1385" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1386" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1387" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1388" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1389" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1390" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1391" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1392" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1393" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1394" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1395" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1396" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1397" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1398" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1399" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1400" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1401" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1402" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1403" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1404" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1405" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1406" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1407" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1408" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1409" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1410" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1411" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1412" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1413" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="1414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1414" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1415" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1416" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1417" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1418" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1419" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1420" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1421" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="1422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1422" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1423" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="1424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1424" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1425" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1426" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1427" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1428" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1429" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1430" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1431" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1432" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1433" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1434" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1435" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1436" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1437" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1438" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1439" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1440" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1441" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1442" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1443" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1444" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1445" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1446" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1447" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1448" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1449" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1450" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1451" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1452" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="1453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1453" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1454" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1455" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1456" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1457" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1458" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1459" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1460" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="1461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1461" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1462" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="1463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1463" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1464" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="1465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1465" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1466" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1467" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1468" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1469" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1470" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="1471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1471" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1472" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1473" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="1474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1474" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1475" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="1476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1476" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="1477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1477" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1478" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1479" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1480" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1481" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1482" s="28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="1483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1483" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1484" s="28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1485" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1486" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1487" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1488" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1489" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1490" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1491" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1492" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1493" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1494" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1495" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1496" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1497" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1498" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1499" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1500" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1501" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1502" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1503" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1504" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1505" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1506" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1507" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1508" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1509" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1510" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1511" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1512" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1513" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="1514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1514" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1515" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1516" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1517" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1518" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1519" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1520" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1521" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="1522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1522" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1523" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="1524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1524" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1525" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1526" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1527" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1528" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1529" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1530" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1531" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1532" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1533" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1534" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1535" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1536" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1537" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1538" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1539" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1540" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1541" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1542" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1543" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1544" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1545" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1546" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1547" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1548" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1549" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1550" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1551" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1552" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="1553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1553" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1554" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1555" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1556" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1557" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1558" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1559" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1560" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="1561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1561" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1562" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="1563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1563" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1564" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="1565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1565" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1566" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1567" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1568" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1569" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1570" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="1571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1571" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1572" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1573" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="1574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1574" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1575" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="1576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1576" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="1577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1577" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1578" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1579" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1580" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1581" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1582" s="28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="1583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1583" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1584" s="28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1585" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1586" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1587" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1588" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1589" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1590" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1591" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1592" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1593" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1594" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1595" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1596" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1597" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1598" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1599" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1600" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1601" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>